--- a/Code/Results/Cases/Case_1_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_68/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9743595907866893</v>
+        <v>1.018777190134747</v>
       </c>
       <c r="E2">
-        <v>0.9898440152954989</v>
+        <v>1.028441947054262</v>
       </c>
       <c r="F2">
-        <v>0.9911060441713516</v>
+        <v>1.035878506188935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9973352152584188</v>
+        <v>1.023983701230586</v>
       </c>
       <c r="L2">
-        <v>1.00144667618973</v>
+        <v>1.031258752783232</v>
       </c>
       <c r="M2">
-        <v>1.002690692514696</v>
+        <v>1.038673849366234</v>
       </c>
       <c r="N2">
-        <v>1.00274753510942</v>
+        <v>1.012006349856506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9793661542975831</v>
+        <v>1.019837964448458</v>
       </c>
       <c r="E3">
-        <v>0.9941884949689271</v>
+        <v>1.029421715039732</v>
       </c>
       <c r="F3">
-        <v>0.9961506079998251</v>
+        <v>1.037028821821524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.0004355728117</v>
+        <v>1.024680361429499</v>
       </c>
       <c r="L3">
-        <v>1.004896279141784</v>
+        <v>1.032045993535909</v>
       </c>
       <c r="M3">
-        <v>1.00683298062011</v>
+        <v>1.039632745861786</v>
       </c>
       <c r="N3">
-        <v>1.00383556450638</v>
+        <v>1.012244501852444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9825363007591223</v>
+        <v>1.020524907074266</v>
       </c>
       <c r="E4">
-        <v>0.9969459578850999</v>
+        <v>1.030056559725999</v>
       </c>
       <c r="F4">
-        <v>0.9993527971992203</v>
+        <v>1.037774361322412</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.002397530818609</v>
+        <v>1.025131167901118</v>
       </c>
       <c r="L4">
-        <v>1.00708138279815</v>
+        <v>1.032555648281803</v>
       </c>
       <c r="M4">
-        <v>1.009459039669814</v>
+        <v>1.040253847108459</v>
       </c>
       <c r="N4">
-        <v>1.00452314133447</v>
+        <v>1.01239841392067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9838530956974486</v>
+        <v>1.020813829861862</v>
       </c>
       <c r="E5">
-        <v>0.9980928544908596</v>
+        <v>1.030323656259277</v>
       </c>
       <c r="F5">
-        <v>1.000684781876105</v>
+        <v>1.038088075393573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.003212156211596</v>
+        <v>1.025320691769214</v>
       </c>
       <c r="L5">
-        <v>1.007989172128858</v>
+        <v>1.032769968569184</v>
       </c>
       <c r="M5">
-        <v>1.010550556293178</v>
+        <v>1.040515109076831</v>
       </c>
       <c r="N5">
-        <v>1.004808391457735</v>
+        <v>1.012463073293099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9840732762346728</v>
+        <v>1.020862349024004</v>
       </c>
       <c r="E6">
-        <v>0.9982847143031337</v>
+        <v>1.030368515121524</v>
       </c>
       <c r="F6">
-        <v>1.000907611822434</v>
+        <v>1.038140766328743</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.003348349418616</v>
+        <v>1.025352513939803</v>
       </c>
       <c r="L6">
-        <v>1.00814097099787</v>
+        <v>1.032805957485931</v>
       </c>
       <c r="M6">
-        <v>1.010733109455026</v>
+        <v>1.040558984963684</v>
       </c>
       <c r="N6">
-        <v>1.004856066632491</v>
+        <v>1.012473927226143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9825539575673204</v>
+        <v>1.02052876715525</v>
       </c>
       <c r="E7">
-        <v>0.9969613306012122</v>
+        <v>1.030060127866673</v>
       </c>
       <c r="F7">
-        <v>0.999370650302135</v>
+        <v>1.037778552048582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.002408455383046</v>
+        <v>1.025133700309516</v>
       </c>
       <c r="L7">
-        <v>1.007093554721078</v>
+        <v>1.032558511798797</v>
       </c>
       <c r="M7">
-        <v>1.009473672938592</v>
+        <v>1.040257337510414</v>
       </c>
       <c r="N7">
-        <v>1.004526967651677</v>
+        <v>1.012399278080471</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.976066386337797</v>
+        <v>1.01913556990954</v>
       </c>
       <c r="E8">
-        <v>0.9913236928146214</v>
+        <v>1.028772884070614</v>
       </c>
       <c r="F8">
-        <v>0.9928240976986862</v>
+        <v>1.036267010527894</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9983923885772998</v>
+        <v>1.024219136428681</v>
       </c>
       <c r="L8">
-        <v>1.002622487125934</v>
+        <v>1.031524751091472</v>
       </c>
       <c r="M8">
-        <v>1.004102156594194</v>
+        <v>1.038997782203663</v>
       </c>
       <c r="N8">
-        <v>1.00311872740752</v>
+        <v>1.012086873282085</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9640696075998623</v>
+        <v>1.01668478420329</v>
       </c>
       <c r="E9">
-        <v>0.9809533909983575</v>
+        <v>1.026511265982619</v>
       </c>
       <c r="F9">
-        <v>0.9807836907214602</v>
+        <v>1.033612736623003</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9909582354544857</v>
+        <v>1.022607722786081</v>
       </c>
       <c r="L9">
-        <v>0.9943632346639233</v>
+        <v>1.029705111133826</v>
       </c>
       <c r="M9">
-        <v>0.9941964281114852</v>
+        <v>1.036783121677486</v>
       </c>
       <c r="N9">
-        <v>1.000504934991748</v>
+        <v>1.011534943782861</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9556421588299636</v>
+        <v>1.015053735864303</v>
       </c>
       <c r="E10">
-        <v>0.9737095121309609</v>
+        <v>1.025008019577426</v>
       </c>
       <c r="F10">
-        <v>0.9723726644954637</v>
+        <v>1.03184944187669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9857333582567546</v>
+        <v>1.021533564086832</v>
       </c>
       <c r="L10">
-        <v>0.9885702474634044</v>
+        <v>1.028493356457054</v>
       </c>
       <c r="M10">
-        <v>0.9872593221669129</v>
+        <v>1.035309935747672</v>
       </c>
       <c r="N10">
-        <v>0.9986639784707583</v>
+        <v>1.011166039416976</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9518787993904302</v>
+        <v>1.014348135187404</v>
       </c>
       <c r="E11">
-        <v>0.9704853572765642</v>
+        <v>1.024358166769749</v>
       </c>
       <c r="F11">
-        <v>0.9686284721189345</v>
+        <v>1.031087390176909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9834001605406963</v>
+        <v>1.021068470029094</v>
       </c>
       <c r="L11">
-        <v>0.9859861993955146</v>
+        <v>1.027968971972987</v>
       </c>
       <c r="M11">
-        <v>0.9841672931488045</v>
+        <v>1.034672801649342</v>
       </c>
       <c r="N11">
-        <v>0.9978411441609032</v>
+        <v>1.011006076378505</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9504626109381099</v>
+        <v>1.014086141422113</v>
       </c>
       <c r="E12">
-        <v>0.9692737655986773</v>
+        <v>1.024116942290496</v>
       </c>
       <c r="F12">
-        <v>0.9672213353933717</v>
+        <v>1.0308045503853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.982522216271761</v>
+        <v>1.020895716942084</v>
       </c>
       <c r="L12">
-        <v>0.9850142958355098</v>
+        <v>1.027774239312679</v>
       </c>
       <c r="M12">
-        <v>0.983004670443239</v>
+        <v>1.03443625652106</v>
       </c>
       <c r="N12">
-        <v>0.9975314295822874</v>
+        <v>1.010946625336262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9507672362182327</v>
+        <v>1.01414233555925</v>
       </c>
       <c r="E13">
-        <v>0.9695343039295106</v>
+        <v>1.024168678527527</v>
       </c>
       <c r="F13">
-        <v>0.967523929529278</v>
+        <v>1.030865210521971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9827110603433581</v>
+        <v>1.020932772905002</v>
       </c>
       <c r="L13">
-        <v>0.9852233307874368</v>
+        <v>1.027816007998315</v>
       </c>
       <c r="M13">
-        <v>0.9832547097108415</v>
+        <v>1.034486991058778</v>
       </c>
       <c r="N13">
-        <v>0.9975980526140427</v>
+        <v>1.010959379306702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.951762117302725</v>
+        <v>1.014326476710061</v>
       </c>
       <c r="E14">
-        <v>0.9703854974253898</v>
+        <v>1.024338223818738</v>
       </c>
       <c r="F14">
-        <v>0.9685124980885704</v>
+        <v>1.03106400606181</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9833278237018381</v>
+        <v>1.021054190132586</v>
       </c>
       <c r="L14">
-        <v>0.9859061121308428</v>
+        <v>1.027952874349895</v>
       </c>
       <c r="M14">
-        <v>0.9840714833146201</v>
+        <v>1.034653246413062</v>
       </c>
       <c r="N14">
-        <v>0.9978156275566421</v>
+        <v>1.011001162822286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9523726342127897</v>
+        <v>1.014439945087112</v>
       </c>
       <c r="E15">
-        <v>0.9709080644984819</v>
+        <v>1.024442707445325</v>
       </c>
       <c r="F15">
-        <v>0.969119385514272</v>
+        <v>1.03118651971999</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9837063153167617</v>
+        <v>1.021128999764434</v>
       </c>
       <c r="L15">
-        <v>0.9863251742940357</v>
+        <v>1.028037208466125</v>
       </c>
       <c r="M15">
-        <v>0.98457282871388</v>
+        <v>1.034755697038808</v>
       </c>
       <c r="N15">
-        <v>0.9979491355568323</v>
+        <v>1.011026902571408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9558894182395876</v>
+        <v>1.015100577992575</v>
       </c>
       <c r="E16">
-        <v>0.9739215739855724</v>
+        <v>1.025051170569725</v>
       </c>
       <c r="F16">
-        <v>0.9726189158969136</v>
+        <v>1.031900047620276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.98588665870548</v>
+        <v>1.02156443134678</v>
       </c>
       <c r="L16">
-        <v>0.988740089308315</v>
+        <v>1.028528164730228</v>
       </c>
       <c r="M16">
-        <v>0.987462600181941</v>
+        <v>1.035352236350497</v>
       </c>
       <c r="N16">
-        <v>0.9987180278583738</v>
+        <v>1.011176650909738</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9580640428707923</v>
+        <v>1.015515150293139</v>
       </c>
       <c r="E17">
-        <v>0.9757878617253715</v>
+        <v>1.025433128034535</v>
       </c>
       <c r="F17">
-        <v>0.9747860270340127</v>
+        <v>1.032348017322074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9872349317113255</v>
+        <v>1.021837572421634</v>
       </c>
       <c r="L17">
-        <v>0.9902341669457452</v>
+        <v>1.028836212510739</v>
       </c>
       <c r="M17">
-        <v>0.9892510794208078</v>
+        <v>1.03572663446968</v>
       </c>
       <c r="N17">
-        <v>0.999193307933706</v>
+        <v>1.01127052395519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9593215267470987</v>
+        <v>1.015757026439381</v>
       </c>
       <c r="E18">
-        <v>0.9768680535067509</v>
+        <v>1.025656019899016</v>
       </c>
       <c r="F18">
-        <v>0.9760402828334526</v>
+        <v>1.032609451984647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9880145732032004</v>
+        <v>1.021996893281358</v>
       </c>
       <c r="L18">
-        <v>0.9910983891502213</v>
+        <v>1.029015921795614</v>
       </c>
       <c r="M18">
-        <v>0.9902858185982455</v>
+        <v>1.03594508838923</v>
       </c>
       <c r="N18">
-        <v>0.9994680678799617</v>
+        <v>1.011325256793188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9597484743400609</v>
+        <v>1.015839510679601</v>
       </c>
       <c r="E19">
-        <v>0.977234973913278</v>
+        <v>1.025732037653505</v>
       </c>
       <c r="F19">
-        <v>0.9764663220733207</v>
+        <v>1.032698618457841</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9882792792588653</v>
+        <v>1.02205121796653</v>
       </c>
       <c r="L19">
-        <v>0.9913918577715646</v>
+        <v>1.029077203144092</v>
       </c>
       <c r="M19">
-        <v>0.9906372293161605</v>
+        <v>1.036019588056826</v>
       </c>
       <c r="N19">
-        <v>0.999561342503608</v>
+        <v>1.01134391558742</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9578318655825416</v>
+        <v>1.015470664081779</v>
       </c>
       <c r="E20">
-        <v>0.975588499656692</v>
+        <v>1.025392137006533</v>
       </c>
       <c r="F20">
-        <v>0.9745545356316716</v>
+        <v>1.032299939776394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9870909809742945</v>
+        <v>1.021808266732241</v>
       </c>
       <c r="L20">
-        <v>0.9900746211836832</v>
+        <v>1.028803158772577</v>
       </c>
       <c r="M20">
-        <v>0.9890600725358822</v>
+        <v>1.035686457458765</v>
       </c>
       <c r="N20">
-        <v>0.9991425711452132</v>
+        <v>1.011260454511378</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9514696647611022</v>
+        <v>1.014272249036662</v>
       </c>
       <c r="E21">
-        <v>0.9701352357164718</v>
+        <v>1.024288292544409</v>
       </c>
       <c r="F21">
-        <v>0.9682218500544624</v>
+        <v>1.03100545965476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9831465194791909</v>
+        <v>1.021018435687277</v>
       </c>
       <c r="L21">
-        <v>0.9857053892970385</v>
+        <v>1.027912569320712</v>
       </c>
       <c r="M21">
-        <v>0.9838313604194072</v>
+        <v>1.034604285185607</v>
       </c>
       <c r="N21">
-        <v>0.9977516715528468</v>
+        <v>1.010988859545931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.947362923105094</v>
+        <v>1.013519323194119</v>
       </c>
       <c r="E22">
-        <v>0.9666250970001362</v>
+        <v>1.023595186264539</v>
       </c>
       <c r="F22">
-        <v>0.9641449145274023</v>
+        <v>1.030192842195708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9806007900421477</v>
+        <v>1.020521858121802</v>
       </c>
       <c r="L22">
-        <v>0.9828880345606181</v>
+        <v>1.027352892817892</v>
       </c>
       <c r="M22">
-        <v>0.9804617773210479</v>
+        <v>1.033924544930364</v>
       </c>
       <c r="N22">
-        <v>0.9968534464274098</v>
+        <v>1.010817902416904</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9495504962475122</v>
+        <v>1.013918410019024</v>
       </c>
       <c r="E23">
-        <v>0.9684939112977041</v>
+        <v>1.023962527342229</v>
       </c>
       <c r="F23">
-        <v>0.9663155768381588</v>
+        <v>1.030623505429295</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9819567892971551</v>
+        <v>1.020785101339317</v>
       </c>
       <c r="L23">
-        <v>0.9843884780290937</v>
+        <v>1.027649562091004</v>
       </c>
       <c r="M23">
-        <v>0.982256140922712</v>
+        <v>1.034284825157512</v>
       </c>
       <c r="N23">
-        <v>0.9973319377238893</v>
+        <v>1.010908548417934</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9579368102219228</v>
+        <v>1.015490765290502</v>
       </c>
       <c r="E24">
-        <v>0.9756786086356404</v>
+        <v>1.025410658770727</v>
       </c>
       <c r="F24">
-        <v>0.9746591667904243</v>
+        <v>1.032321663512391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9871560470305543</v>
+        <v>1.021821508704645</v>
       </c>
       <c r="L24">
-        <v>0.990146735392587</v>
+        <v>1.028818094240573</v>
       </c>
       <c r="M24">
-        <v>0.9891464063775096</v>
+        <v>1.035704611492334</v>
       </c>
       <c r="N24">
-        <v>0.9991655045110736</v>
+        <v>1.011265004526705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9672428978102349</v>
+        <v>1.017317874621408</v>
       </c>
       <c r="E25">
-        <v>0.9836896978703378</v>
+        <v>1.027095156568682</v>
       </c>
       <c r="F25">
-        <v>0.9839606316739602</v>
+        <v>1.034297833428939</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9929252945146537</v>
+        <v>1.023024291679433</v>
       </c>
       <c r="L25">
-        <v>0.9965465995878638</v>
+        <v>1.030175296368113</v>
       </c>
       <c r="M25">
-        <v>0.9968131480853906</v>
+        <v>1.037355091090548</v>
       </c>
       <c r="N25">
-        <v>1.001197273180615</v>
+        <v>1.011677799327959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_68/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.018777190134747</v>
+        <v>0.9743595907866898</v>
       </c>
       <c r="E2">
-        <v>1.028441947054262</v>
+        <v>0.9898440152954991</v>
       </c>
       <c r="F2">
-        <v>1.035878506188935</v>
+        <v>0.9911060441713521</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.023983701230586</v>
+        <v>0.9973352152584193</v>
       </c>
       <c r="L2">
-        <v>1.031258752783232</v>
+        <v>1.00144667618973</v>
       </c>
       <c r="M2">
-        <v>1.038673849366234</v>
+        <v>1.002690692514697</v>
       </c>
       <c r="N2">
-        <v>1.012006349856506</v>
+        <v>1.00274753510942</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.019837964448458</v>
+        <v>0.9793661542975831</v>
       </c>
       <c r="E3">
-        <v>1.029421715039732</v>
+        <v>0.994188494968927</v>
       </c>
       <c r="F3">
-        <v>1.037028821821524</v>
+        <v>0.9961506079998248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.024680361429499</v>
+        <v>1.0004355728117</v>
       </c>
       <c r="L3">
-        <v>1.032045993535909</v>
+        <v>1.004896279141784</v>
       </c>
       <c r="M3">
-        <v>1.039632745861786</v>
+        <v>1.00683298062011</v>
       </c>
       <c r="N3">
-        <v>1.012244501852444</v>
+        <v>1.00383556450638</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.020524907074266</v>
+        <v>0.9825363007591223</v>
       </c>
       <c r="E4">
-        <v>1.030056559725999</v>
+        <v>0.9969459578851002</v>
       </c>
       <c r="F4">
-        <v>1.037774361322412</v>
+        <v>0.9993527971992209</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.025131167901118</v>
+        <v>1.002397530818609</v>
       </c>
       <c r="L4">
-        <v>1.032555648281803</v>
+        <v>1.00708138279815</v>
       </c>
       <c r="M4">
-        <v>1.040253847108459</v>
+        <v>1.009459039669815</v>
       </c>
       <c r="N4">
-        <v>1.01239841392067</v>
+        <v>1.00452314133447</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.020813829861862</v>
+        <v>0.9838530956974484</v>
       </c>
       <c r="E5">
-        <v>1.030323656259277</v>
+        <v>0.9980928544908595</v>
       </c>
       <c r="F5">
-        <v>1.038088075393573</v>
+        <v>1.000684781876105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.025320691769214</v>
+        <v>1.003212156211595</v>
       </c>
       <c r="L5">
-        <v>1.032769968569184</v>
+        <v>1.007989172128858</v>
       </c>
       <c r="M5">
-        <v>1.040515109076831</v>
+        <v>1.010550556293178</v>
       </c>
       <c r="N5">
-        <v>1.012463073293099</v>
+        <v>1.004808391457735</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.020862349024004</v>
+        <v>0.984073276234673</v>
       </c>
       <c r="E6">
-        <v>1.030368515121524</v>
+        <v>0.9982847143031337</v>
       </c>
       <c r="F6">
-        <v>1.038140766328743</v>
+        <v>1.000907611822434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.025352513939803</v>
+        <v>1.003348349418616</v>
       </c>
       <c r="L6">
-        <v>1.032805957485931</v>
+        <v>1.00814097099787</v>
       </c>
       <c r="M6">
-        <v>1.040558984963684</v>
+        <v>1.010733109455026</v>
       </c>
       <c r="N6">
-        <v>1.012473927226143</v>
+        <v>1.004856066632492</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.02052876715525</v>
+        <v>0.9825539575673208</v>
       </c>
       <c r="E7">
-        <v>1.030060127866673</v>
+        <v>0.9969613306012125</v>
       </c>
       <c r="F7">
-        <v>1.037778552048582</v>
+        <v>0.9993706503021353</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.025133700309516</v>
+        <v>1.002408455383046</v>
       </c>
       <c r="L7">
-        <v>1.032558511798797</v>
+        <v>1.007093554721079</v>
       </c>
       <c r="M7">
-        <v>1.040257337510414</v>
+        <v>1.009473672938592</v>
       </c>
       <c r="N7">
-        <v>1.012399278080471</v>
+        <v>1.004526967651677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.01913556990954</v>
+        <v>0.9760663863377971</v>
       </c>
       <c r="E8">
-        <v>1.028772884070614</v>
+        <v>0.9913236928146213</v>
       </c>
       <c r="F8">
-        <v>1.036267010527894</v>
+        <v>0.9928240976986861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.024219136428681</v>
+        <v>0.9983923885772999</v>
       </c>
       <c r="L8">
-        <v>1.031524751091472</v>
+        <v>1.002622487125934</v>
       </c>
       <c r="M8">
-        <v>1.038997782203663</v>
+        <v>1.004102156594194</v>
       </c>
       <c r="N8">
-        <v>1.012086873282085</v>
+        <v>1.00311872740752</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.01668478420329</v>
+        <v>0.9640696075998627</v>
       </c>
       <c r="E9">
-        <v>1.026511265982619</v>
+        <v>0.9809533909983583</v>
       </c>
       <c r="F9">
-        <v>1.033612736623003</v>
+        <v>0.9807836907214609</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.022607722786081</v>
+        <v>0.9909582354544862</v>
       </c>
       <c r="L9">
-        <v>1.029705111133826</v>
+        <v>0.9943632346639241</v>
       </c>
       <c r="M9">
-        <v>1.036783121677486</v>
+        <v>0.9941964281114859</v>
       </c>
       <c r="N9">
-        <v>1.011534943782861</v>
+        <v>1.000504934991748</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015053735864303</v>
+        <v>0.9556421588299635</v>
       </c>
       <c r="E10">
-        <v>1.025008019577426</v>
+        <v>0.9737095121309606</v>
       </c>
       <c r="F10">
-        <v>1.03184944187669</v>
+        <v>0.9723726644954633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.021533564086832</v>
+        <v>0.9857333582567545</v>
       </c>
       <c r="L10">
-        <v>1.028493356457054</v>
+        <v>0.9885702474634042</v>
       </c>
       <c r="M10">
-        <v>1.035309935747672</v>
+        <v>0.9872593221669128</v>
       </c>
       <c r="N10">
-        <v>1.011166039416976</v>
+        <v>0.9986639784707583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.014348135187404</v>
+        <v>0.9518787993904301</v>
       </c>
       <c r="E11">
-        <v>1.024358166769749</v>
+        <v>0.970485357276564</v>
       </c>
       <c r="F11">
-        <v>1.031087390176909</v>
+        <v>0.968628472118934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.021068470029094</v>
+        <v>0.9834001605406962</v>
       </c>
       <c r="L11">
-        <v>1.027968971972987</v>
+        <v>0.9859861993955145</v>
       </c>
       <c r="M11">
-        <v>1.034672801649342</v>
+        <v>0.984167293148804</v>
       </c>
       <c r="N11">
-        <v>1.011006076378505</v>
+        <v>0.9978411441609031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.014086141422113</v>
+        <v>0.9504626109381099</v>
       </c>
       <c r="E12">
-        <v>1.024116942290496</v>
+        <v>0.9692737655986776</v>
       </c>
       <c r="F12">
-        <v>1.0308045503853</v>
+        <v>0.9672213353933719</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.020895716942084</v>
+        <v>0.982522216271761</v>
       </c>
       <c r="L12">
-        <v>1.027774239312679</v>
+        <v>0.9850142958355098</v>
       </c>
       <c r="M12">
-        <v>1.03443625652106</v>
+        <v>0.9830046704432391</v>
       </c>
       <c r="N12">
-        <v>1.010946625336262</v>
+        <v>0.9975314295822874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.01414233555925</v>
+        <v>0.9507672362182327</v>
       </c>
       <c r="E13">
-        <v>1.024168678527527</v>
+        <v>0.9695343039295103</v>
       </c>
       <c r="F13">
-        <v>1.030865210521971</v>
+        <v>0.9675239295292779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.020932772905002</v>
+        <v>0.9827110603433581</v>
       </c>
       <c r="L13">
-        <v>1.027816007998315</v>
+        <v>0.9852233307874367</v>
       </c>
       <c r="M13">
-        <v>1.034486991058778</v>
+        <v>0.9832547097108416</v>
       </c>
       <c r="N13">
-        <v>1.010959379306702</v>
+        <v>0.9975980526140427</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.014326476710061</v>
+        <v>0.9517621173027254</v>
       </c>
       <c r="E14">
-        <v>1.024338223818738</v>
+        <v>0.97038549742539</v>
       </c>
       <c r="F14">
-        <v>1.03106400606181</v>
+        <v>0.9685124980885708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.021054190132586</v>
+        <v>0.9833278237018382</v>
       </c>
       <c r="L14">
-        <v>1.027952874349895</v>
+        <v>0.9859061121308431</v>
       </c>
       <c r="M14">
-        <v>1.034653246413062</v>
+        <v>0.9840714833146204</v>
       </c>
       <c r="N14">
-        <v>1.011001162822286</v>
+        <v>0.9978156275566422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.014439945087112</v>
+        <v>0.9523726342127894</v>
       </c>
       <c r="E15">
-        <v>1.024442707445325</v>
+        <v>0.9709080644984815</v>
       </c>
       <c r="F15">
-        <v>1.03118651971999</v>
+        <v>0.9691193855142716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.021128999764434</v>
+        <v>0.9837063153167613</v>
       </c>
       <c r="L15">
-        <v>1.028037208466125</v>
+        <v>0.9863251742940352</v>
       </c>
       <c r="M15">
-        <v>1.034755697038808</v>
+        <v>0.9845728287138794</v>
       </c>
       <c r="N15">
-        <v>1.011026902571408</v>
+        <v>0.9979491355568322</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.015100577992575</v>
+        <v>0.9558894182395881</v>
       </c>
       <c r="E16">
-        <v>1.025051170569725</v>
+        <v>0.9739215739855728</v>
       </c>
       <c r="F16">
-        <v>1.031900047620276</v>
+        <v>0.9726189158969141</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.02156443134678</v>
+        <v>0.9858866587054804</v>
       </c>
       <c r="L16">
-        <v>1.028528164730228</v>
+        <v>0.9887400893083154</v>
       </c>
       <c r="M16">
-        <v>1.035352236350497</v>
+        <v>0.9874626001819415</v>
       </c>
       <c r="N16">
-        <v>1.011176650909738</v>
+        <v>0.998718027858374</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.015515150293139</v>
+        <v>0.9580640428707929</v>
       </c>
       <c r="E17">
-        <v>1.025433128034535</v>
+        <v>0.9757878617253722</v>
       </c>
       <c r="F17">
-        <v>1.032348017322074</v>
+        <v>0.9747860270340141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.021837572421634</v>
+        <v>0.9872349317113261</v>
       </c>
       <c r="L17">
-        <v>1.028836212510739</v>
+        <v>0.9902341669457458</v>
       </c>
       <c r="M17">
-        <v>1.03572663446968</v>
+        <v>0.9892510794208088</v>
       </c>
       <c r="N17">
-        <v>1.01127052395519</v>
+        <v>0.9991933079337062</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.015757026439381</v>
+        <v>0.959321526747099</v>
       </c>
       <c r="E18">
-        <v>1.025656019899016</v>
+        <v>0.9768680535067514</v>
       </c>
       <c r="F18">
-        <v>1.032609451984647</v>
+        <v>0.9760402828334532</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.021996893281358</v>
+        <v>0.9880145732032007</v>
       </c>
       <c r="L18">
-        <v>1.029015921795614</v>
+        <v>0.9910983891502219</v>
       </c>
       <c r="M18">
-        <v>1.03594508838923</v>
+        <v>0.990285818598246</v>
       </c>
       <c r="N18">
-        <v>1.011325256793188</v>
+        <v>0.9994680678799619</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.015839510679601</v>
+        <v>0.9597484743400616</v>
       </c>
       <c r="E19">
-        <v>1.025732037653505</v>
+        <v>0.9772349739132787</v>
       </c>
       <c r="F19">
-        <v>1.032698618457841</v>
+        <v>0.9764663220733212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.02205121796653</v>
+        <v>0.9882792792588658</v>
       </c>
       <c r="L19">
-        <v>1.029077203144092</v>
+        <v>0.9913918577715651</v>
       </c>
       <c r="M19">
-        <v>1.036019588056826</v>
+        <v>0.9906372293161612</v>
       </c>
       <c r="N19">
-        <v>1.01134391558742</v>
+        <v>0.9995613425036082</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.015470664081779</v>
+        <v>0.9578318655825419</v>
       </c>
       <c r="E20">
-        <v>1.025392137006533</v>
+        <v>0.975588499656692</v>
       </c>
       <c r="F20">
-        <v>1.032299939776394</v>
+        <v>0.9745545356316717</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.021808266732241</v>
+        <v>0.9870909809742944</v>
       </c>
       <c r="L20">
-        <v>1.028803158772577</v>
+        <v>0.9900746211836833</v>
       </c>
       <c r="M20">
-        <v>1.035686457458765</v>
+        <v>0.9890600725358824</v>
       </c>
       <c r="N20">
-        <v>1.011260454511378</v>
+        <v>0.9991425711452134</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.014272249036662</v>
+        <v>0.9514696647611024</v>
       </c>
       <c r="E21">
-        <v>1.024288292544409</v>
+        <v>0.9701352357164721</v>
       </c>
       <c r="F21">
-        <v>1.03100545965476</v>
+        <v>0.9682218500544628</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.021018435687277</v>
+        <v>0.9831465194791912</v>
       </c>
       <c r="L21">
-        <v>1.027912569320712</v>
+        <v>0.9857053892970389</v>
       </c>
       <c r="M21">
-        <v>1.034604285185607</v>
+        <v>0.9838313604194074</v>
       </c>
       <c r="N21">
-        <v>1.010988859545931</v>
+        <v>0.9977516715528468</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.013519323194119</v>
+        <v>0.9473629231050941</v>
       </c>
       <c r="E22">
-        <v>1.023595186264539</v>
+        <v>0.966625097000136</v>
       </c>
       <c r="F22">
-        <v>1.030192842195708</v>
+        <v>0.964144914527402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.020521858121802</v>
+        <v>0.9806007900421476</v>
       </c>
       <c r="L22">
-        <v>1.027352892817892</v>
+        <v>0.9828880345606179</v>
       </c>
       <c r="M22">
-        <v>1.033924544930364</v>
+        <v>0.9804617773210476</v>
       </c>
       <c r="N22">
-        <v>1.010817902416904</v>
+        <v>0.9968534464274097</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.013918410019024</v>
+        <v>0.9495504962475119</v>
       </c>
       <c r="E23">
-        <v>1.023962527342229</v>
+        <v>0.9684939112977039</v>
       </c>
       <c r="F23">
-        <v>1.030623505429295</v>
+        <v>0.9663155768381587</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.020785101339317</v>
+        <v>0.9819567892971549</v>
       </c>
       <c r="L23">
-        <v>1.027649562091004</v>
+        <v>0.9843884780290935</v>
       </c>
       <c r="M23">
-        <v>1.034284825157512</v>
+        <v>0.9822561409227119</v>
       </c>
       <c r="N23">
-        <v>1.010908548417934</v>
+        <v>0.9973319377238893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.015490765290502</v>
+        <v>0.9579368102219226</v>
       </c>
       <c r="E24">
-        <v>1.025410658770727</v>
+        <v>0.9756786086356398</v>
       </c>
       <c r="F24">
-        <v>1.032321663512391</v>
+        <v>0.9746591667904234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.021821508704645</v>
+        <v>0.9871560470305537</v>
       </c>
       <c r="L24">
-        <v>1.028818094240573</v>
+        <v>0.9901467353925865</v>
       </c>
       <c r="M24">
-        <v>1.035704611492334</v>
+        <v>0.9891464063775091</v>
       </c>
       <c r="N24">
-        <v>1.011265004526705</v>
+        <v>0.9991655045110733</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.017317874621408</v>
+        <v>0.9672428978102351</v>
       </c>
       <c r="E25">
-        <v>1.027095156568682</v>
+        <v>0.9836896978703379</v>
       </c>
       <c r="F25">
-        <v>1.034297833428939</v>
+        <v>0.9839606316739603</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.023024291679433</v>
+        <v>0.9929252945146539</v>
       </c>
       <c r="L25">
-        <v>1.030175296368113</v>
+        <v>0.996546599587864</v>
       </c>
       <c r="M25">
-        <v>1.037355091090548</v>
+        <v>0.9968131480853907</v>
       </c>
       <c r="N25">
-        <v>1.011677799327959</v>
+        <v>1.001197273180616</v>
       </c>
     </row>
   </sheetData>
